--- a/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2479080426153013</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.314202256350571</v>
+        <v>0.3142022563505709</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1236668251024279</v>
+        <v>0.1285467842966222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1986744709832556</v>
+        <v>0.199210357487415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1413664636786897</v>
+        <v>0.1412235400571255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2243594313724656</v>
+        <v>0.2227294957128745</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2141721213777217</v>
+        <v>0.2167029112488669</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.356351186399609</v>
+        <v>0.346035755731677</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2623080087172421</v>
+        <v>0.2645863203683719</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3258022626638841</v>
+        <v>0.3219691310104177</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1844761050695055</v>
+        <v>0.1848611276859792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.292284505875858</v>
+        <v>0.2897053699214459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2107682140521684</v>
+        <v>0.2168229787238563</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2832961667675722</v>
+        <v>0.2840905128910608</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2151985114080022</v>
+        <v>0.2162735576390654</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3015025866749519</v>
+        <v>0.3032622711658671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2324281310386761</v>
+        <v>0.2322434257467885</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3152888587715106</v>
+        <v>0.3163180236491532</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3210975175831154</v>
+        <v>0.3275045156435293</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.472516263059835</v>
+        <v>0.4771879817605987</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.36823709790584</v>
+        <v>0.3690336591688192</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4110996975390391</v>
+        <v>0.4077924802622204</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2576367396739921</v>
+        <v>0.2536484678586488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3717975950131549</v>
+        <v>0.3743978390241712</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.285937282608555</v>
+        <v>0.2889490321522351</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3451391652041929</v>
+        <v>0.3481153570843732</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3737977273340873</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3800760441296301</v>
+        <v>0.38007604412963</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2232157622192655</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1099227278957594</v>
+        <v>0.1110573572504452</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2188092301823239</v>
+        <v>0.221745658743681</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.192176972649904</v>
+        <v>0.1943896004413734</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2145340248236148</v>
+        <v>0.2137539657207023</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2679451734023759</v>
+        <v>0.2691830715375655</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3712025384322868</v>
+        <v>0.3780984411511946</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3351695491119488</v>
+        <v>0.3269400455927183</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3429923686979545</v>
+        <v>0.3451966635444691</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1988331416999349</v>
+        <v>0.196464053524117</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3045820859444804</v>
+        <v>0.3092687018531942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2714341589735029</v>
+        <v>0.2761491076137767</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2893842805959588</v>
+        <v>0.2914265483280115</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1774743092269013</v>
+        <v>0.1750084558184598</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3034414845440053</v>
+        <v>0.3070884826555608</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2679668403730855</v>
+        <v>0.2671311656685031</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3016780455677504</v>
+        <v>0.2966036477304806</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3482871048480267</v>
+        <v>0.3505964662158879</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.461717508900064</v>
+        <v>0.4640610475004306</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4160998881258235</v>
+        <v>0.4155755183308937</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.417959797137244</v>
+        <v>0.4155058093955666</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2499829480635126</v>
+        <v>0.2481690203492234</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3682841862284758</v>
+        <v>0.3714128506464614</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.332159000586322</v>
+        <v>0.3363160329656839</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3474376977668286</v>
+        <v>0.3468422036480888</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2171674200588691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.355140231254057</v>
+        <v>0.3551402312540571</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2648383704123108</v>
@@ -957,7 +957,7 @@
         <v>0.2904554428723713</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4364716810767459</v>
+        <v>0.4364716810767458</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2134796205649142</v>
@@ -969,7 +969,7 @@
         <v>0.2548043117751209</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3982486470461749</v>
+        <v>0.3982486470461748</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1200522082446124</v>
+        <v>0.1197948648005364</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2459382127490558</v>
+        <v>0.2503507830363142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1738189098390891</v>
+        <v>0.1784154645438565</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3095029758820289</v>
+        <v>0.3075358904378803</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2222631177942578</v>
+        <v>0.2234508603214433</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3822551008716785</v>
+        <v>0.3787999119896338</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2489627622418765</v>
+        <v>0.243615340502442</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3895125529755734</v>
+        <v>0.3915406852194096</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1821998455398652</v>
+        <v>0.1830413896908536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3325798460466148</v>
+        <v>0.3318169962681745</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2248710081473702</v>
+        <v>0.2216623182587352</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.365869855807866</v>
+        <v>0.3660142247325899</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.201697875033178</v>
+        <v>0.2015191404992661</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3480269286527983</v>
+        <v>0.3487135026075657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2627512330290701</v>
+        <v>0.2646343893501892</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4073858603885073</v>
+        <v>0.407246056653251</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3164678740684333</v>
+        <v>0.3190549104247556</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4902044835559984</v>
+        <v>0.4950964281238808</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3489796247273894</v>
+        <v>0.3465802878998004</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4787379186475251</v>
+        <v>0.4781870732771819</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.244610544928265</v>
+        <v>0.2428646354363641</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4084296081844127</v>
+        <v>0.4049063773582098</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2931733804081554</v>
+        <v>0.2880000662691345</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4271347108695769</v>
+        <v>0.4298583396964556</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4419875312878299</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.452237418046554</v>
+        <v>0.4522374180465541</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2506617448635435</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1421142764227673</v>
+        <v>0.1437445935534244</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1980712395045535</v>
+        <v>0.2022396758040615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2548254631670915</v>
+        <v>0.2531239746738119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2708914795687928</v>
+        <v>0.2675741195364701</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2711314986759243</v>
+        <v>0.2695643865850468</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3994160260581755</v>
+        <v>0.4040029826915165</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3940466480599331</v>
+        <v>0.3952416439571741</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4053145019317431</v>
+        <v>0.4031597265107089</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2210520141618659</v>
+        <v>0.2223705579492256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3142362204944618</v>
+        <v>0.3143812776716992</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3386910264111486</v>
+        <v>0.3386976361864058</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.35791598676928</v>
+        <v>0.3529702409915071</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2215767267562476</v>
+        <v>0.2215064137495001</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.299887933888399</v>
+        <v>0.2951358906673145</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3503446707582915</v>
+        <v>0.3511131620522721</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3864641244945622</v>
+        <v>0.3839688250446614</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3658113321593538</v>
+        <v>0.3631537236776708</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5068880128526803</v>
+        <v>0.5053132196515561</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4939671627416229</v>
+        <v>0.4940870972020897</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4953633962963307</v>
+        <v>0.4987731286047455</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2820425644991569</v>
+        <v>0.2832909504191599</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3869574029136586</v>
+        <v>0.3870667841510962</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.410024651101259</v>
+        <v>0.4105095693621803</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4283009295568418</v>
+        <v>0.4320181311179526</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1963907470009212</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2768606303228367</v>
+        <v>0.2768606303228368</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3588257717919574</v>
@@ -1229,7 +1229,7 @@
         <v>0.4459380408262259</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4261194356639578</v>
+        <v>0.4261194356639579</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2579340183066281</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1121322942408536</v>
+        <v>0.1112257864488954</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2146619591683204</v>
+        <v>0.2112199937367367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1463534996902128</v>
+        <v>0.148834259070919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2312595786913891</v>
+        <v>0.2286268244011038</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2892835690472631</v>
+        <v>0.2984948745202895</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4707447011259104</v>
+        <v>0.470227801707467</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3806445478904254</v>
+        <v>0.3851996932695318</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3826428407038655</v>
+        <v>0.3752721874403847</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2197445630992267</v>
+        <v>0.2205312560851809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3564736192362994</v>
+        <v>0.3595256449583523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2819053631373418</v>
+        <v>0.2785187991747253</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.319446415733723</v>
+        <v>0.3199369712481715</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2078360225949319</v>
+        <v>0.2045902906095564</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3375392596771448</v>
+        <v>0.3400377466115204</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2559081278029373</v>
+        <v>0.2643471714748474</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3319135463231725</v>
+        <v>0.3321098087687565</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4304020000789034</v>
+        <v>0.4299007712750015</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6046752787573703</v>
+        <v>0.5997799904151982</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5110853182215764</v>
+        <v>0.5136881162297343</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4744697796631829</v>
+        <v>0.4724958037422516</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.302839666927552</v>
+        <v>0.306379889513287</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.458198664004451</v>
+        <v>0.4567196707545876</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3676594920092454</v>
+        <v>0.3697254108315871</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.389746922514402</v>
+        <v>0.3910778610294232</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3037909433411587</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.4441225440745255</v>
+        <v>0.4441225440745252</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.238018623105655</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1356325860157879</v>
+        <v>0.1388469571693804</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2709626700295003</v>
+        <v>0.2685065003797534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1617410312066298</v>
+        <v>0.1649698342667342</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.318154388495161</v>
+        <v>0.3176960559715669</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.239685377843863</v>
+        <v>0.2381735443887215</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.380558836437677</v>
+        <v>0.3847793904952477</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2485749694506313</v>
+        <v>0.2443210227709693</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3956669123263974</v>
+        <v>0.4008564863429909</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2048694021283505</v>
+        <v>0.2035016509241679</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3436643659667102</v>
+        <v>0.3400945054939597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2201155733496181</v>
+        <v>0.2244125822669419</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3707020008478966</v>
+        <v>0.3681455131975891</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2307375944073559</v>
+        <v>0.2342090109053433</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.37766623035017</v>
+        <v>0.384318549489815</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2617334993797947</v>
+        <v>0.2653240553024135</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4172606596880647</v>
+        <v>0.4167743607624124</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3562348385181298</v>
+        <v>0.3462925545561188</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4998430758365298</v>
+        <v>0.4936607293268338</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3582765296526399</v>
+        <v>0.3615320194875243</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4907878649944193</v>
+        <v>0.4930583324243301</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2746646656068052</v>
+        <v>0.2722152503716689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.422821613881915</v>
+        <v>0.4198381175451039</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2954768258321763</v>
+        <v>0.2981444201156461</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.442122754922238</v>
+        <v>0.4383513861567273</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2568506319322602</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4024562974307847</v>
+        <v>0.4024562974307848</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1434778437109998</v>
+        <v>0.1473040248453392</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.210711812024537</v>
+        <v>0.2102098785665775</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.182090251420117</v>
+        <v>0.1816397253109538</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3201342406912587</v>
+        <v>0.3199501384102248</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2510474529150202</v>
+        <v>0.249179108924196</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3428341518583787</v>
+        <v>0.3403539557799997</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.264804062079014</v>
+        <v>0.2633742161326817</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.410659005641665</v>
+        <v>0.4101847254580825</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2091634649210231</v>
+        <v>0.2052699718964415</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2870402606714452</v>
+        <v>0.2855193486553312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2312804470910119</v>
+        <v>0.2331954860728196</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3759232859053435</v>
+        <v>0.3775486302299291</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.205516789764764</v>
+        <v>0.2062303504402272</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.281359403070736</v>
+        <v>0.2800209939111823</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.249577574851067</v>
+        <v>0.2481361223752875</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3943678679306499</v>
+        <v>0.4046586778231682</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3240761433872083</v>
+        <v>0.3213957024741124</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4149180068332565</v>
+        <v>0.4206067784631424</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3402338818798256</v>
+        <v>0.3369807420366285</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4766438426059459</v>
+        <v>0.478104361537121</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2563936927863611</v>
+        <v>0.2563016409091577</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3394696928062518</v>
+        <v>0.3414399102271148</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2811472808404321</v>
+        <v>0.2820714139789207</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4296033638720881</v>
+        <v>0.4274762837488484</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1808101449727042</v>
+        <v>0.1787371723774751</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1813925139400268</v>
+        <v>0.1810286264901176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2146302078294949</v>
+        <v>0.2142055564830316</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1987660802207269</v>
+        <v>0.1954028422785037</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2688082391142328</v>
+        <v>0.2676608149134542</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2801235626221675</v>
+        <v>0.2794665583029047</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3192412581645395</v>
+        <v>0.3176956987731077</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3143086340510539</v>
+        <v>0.315542590831851</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.23451884307898</v>
+        <v>0.2331847340770365</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2406524297167777</v>
+        <v>0.241436720198089</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.280269119581002</v>
+        <v>0.2804392427841232</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.265583764652232</v>
+        <v>0.2635751815274464</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2403333797632651</v>
+        <v>0.2390335360864298</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2410208229309039</v>
+        <v>0.2447871572273242</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2830338317743463</v>
+        <v>0.2782789155491081</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.256466203772423</v>
+        <v>0.2521660513144917</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3371602776364072</v>
+        <v>0.3355231307916546</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3480333712825176</v>
+        <v>0.3457020012889888</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3914340701866926</v>
+        <v>0.3885281966677303</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3739461625415358</v>
+        <v>0.3723889614006639</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2796894614111304</v>
+        <v>0.2800003093223422</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2862901548745005</v>
+        <v>0.2863015761740099</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3262177975198318</v>
+        <v>0.3283661920593894</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3064391044712209</v>
+        <v>0.3037533105436189</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.3480945393985906</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.4044272088066748</v>
+        <v>0.4044272088066747</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2371808704929737</v>
@@ -1785,7 +1785,7 @@
         <v>0.2900753972318618</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.3518555473516288</v>
+        <v>0.3518555473516289</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2359163946098933</v>
+        <v>0.2363552998640854</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2143130378385566</v>
+        <v>0.2140421273941102</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2817844337124596</v>
+        <v>0.279672693088771</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3845994062765402</v>
+        <v>0.3836209088048492</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3310209156712248</v>
+        <v>0.330394044515654</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3892165264919744</v>
+        <v>0.3895839724207166</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3153037823008362</v>
+        <v>0.3162000005884409</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.278651129595837</v>
+        <v>0.2796680095254647</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3412208082512383</v>
+        <v>0.3395609369117333</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2685533183889923</v>
+        <v>0.2694024069474839</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2432211743021607</v>
+        <v>0.2425915834669733</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3125834626981234</v>
+        <v>0.313039322144691</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.4179212969313246</v>
+        <v>0.4175928916533557</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3658697484075641</v>
+        <v>0.3644753589976356</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4169880532585944</v>
+        <v>0.4186461278401625</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3399503918535019</v>
+        <v>0.3384073384178909</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3018608980188818</v>
+        <v>0.3014701974636741</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3614358832386632</v>
+        <v>0.362074918592791</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33762</v>
+        <v>35095</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>58557</v>
+        <v>58715</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>41528</v>
+        <v>41486</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>71536</v>
+        <v>71016</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55864</v>
+        <v>56524</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>102360</v>
+        <v>99397</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>75729</v>
+        <v>76387</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>102973</v>
+        <v>101762</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>98482</v>
+        <v>98688</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>170105</v>
+        <v>168604</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>122765</v>
+        <v>126292</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>179866</v>
+        <v>180371</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58751</v>
+        <v>59045</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88864</v>
+        <v>89383</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>68278</v>
+        <v>68224</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>100528</v>
+        <v>100856</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>83754</v>
+        <v>85426</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>135728</v>
+        <v>137070</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>106311</v>
+        <v>106541</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>129933</v>
+        <v>128887</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>137539</v>
+        <v>135410</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>216380</v>
+        <v>217893</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>166548</v>
+        <v>168302</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>219131</v>
+        <v>221021</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>54200</v>
+        <v>54760</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>110614</v>
+        <v>112098</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>96583</v>
+        <v>97695</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>113842</v>
+        <v>113428</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>135031</v>
+        <v>135655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>194423</v>
+        <v>198035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>175322</v>
+        <v>171017</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>187443</v>
+        <v>188648</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>198241</v>
+        <v>195879</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>313504</v>
+        <v>318328</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>278399</v>
+        <v>283235</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>311708</v>
+        <v>313907</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>87508</v>
+        <v>86292</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>153398</v>
+        <v>155242</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>134673</v>
+        <v>134253</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>160085</v>
+        <v>157392</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>175519</v>
+        <v>176683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>241831</v>
+        <v>243059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>217655</v>
+        <v>217381</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>228413</v>
+        <v>227071</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>249239</v>
+        <v>247430</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>379072</v>
+        <v>382292</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>340682</v>
+        <v>344946</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>374239</v>
+        <v>373598</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>38278</v>
+        <v>38196</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>79695</v>
+        <v>81125</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>55373</v>
+        <v>56837</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>97801</v>
+        <v>97179</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>74550</v>
+        <v>74948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>130357</v>
+        <v>129178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>83728</v>
+        <v>81930</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>138815</v>
+        <v>139538</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>119206</v>
+        <v>119756</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>221188</v>
+        <v>220680</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>147262</v>
+        <v>145161</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>246002</v>
+        <v>246099</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>64311</v>
+        <v>64254</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>112777</v>
+        <v>112999</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>83703</v>
+        <v>84303</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>128731</v>
+        <v>128687</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>106147</v>
+        <v>107015</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>167170</v>
+        <v>168838</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>117365</v>
+        <v>116558</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>170613</v>
+        <v>170417</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>160038</v>
+        <v>158896</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>271633</v>
+        <v>269289</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>191992</v>
+        <v>188604</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>287195</v>
+        <v>289026</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50972</v>
+        <v>51557</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>74075</v>
+        <v>75634</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>94276</v>
+        <v>93647</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101082</v>
+        <v>99844</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>100713</v>
+        <v>100131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>155353</v>
+        <v>157137</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>152608</v>
+        <v>153070</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>171027</v>
+        <v>170118</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>161396</v>
+        <v>162359</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>239741</v>
+        <v>239852</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>256473</v>
+        <v>256478</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>284582</v>
+        <v>280649</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>79473</v>
+        <v>79448</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>112153</v>
+        <v>110376</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>129615</v>
+        <v>129899</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>144207</v>
+        <v>143276</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>135883</v>
+        <v>134896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>197155</v>
+        <v>196542</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>191305</v>
+        <v>191352</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>209024</v>
+        <v>210463</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>205927</v>
+        <v>206838</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>295223</v>
+        <v>295306</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>310490</v>
+        <v>310857</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>340545</v>
+        <v>343501</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22797</v>
+        <v>22613</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45641</v>
+        <v>44909</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>30913</v>
+        <v>31437</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>47562</v>
+        <v>47021</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>60075</v>
+        <v>61988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>103371</v>
+        <v>103258</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>83204</v>
+        <v>84200</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>87594</v>
+        <v>85907</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>90310</v>
+        <v>90633</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>154071</v>
+        <v>155390</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>121165</v>
+        <v>119710</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>138826</v>
+        <v>139039</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>42255</v>
+        <v>41595</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>71767</v>
+        <v>72298</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>54053</v>
+        <v>55836</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>68263</v>
+        <v>68303</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>89381</v>
+        <v>89277</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>132781</v>
+        <v>131706</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>111717</v>
+        <v>112286</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>108615</v>
+        <v>108163</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>124460</v>
+        <v>125915</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>198038</v>
+        <v>197398</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>158023</v>
+        <v>158911</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>169377</v>
+        <v>169955</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>36731</v>
+        <v>37601</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>74239</v>
+        <v>73566</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>42558</v>
+        <v>43407</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>86127</v>
+        <v>86003</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>66667</v>
+        <v>66247</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>106568</v>
+        <v>107750</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>67890</v>
+        <v>66728</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>104357</v>
+        <v>105726</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>112464</v>
+        <v>111713</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>190394</v>
+        <v>188416</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>118034</v>
+        <v>120339</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>198124</v>
+        <v>196758</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62486</v>
+        <v>63426</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>103473</v>
+        <v>105296</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>68868</v>
+        <v>69813</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>112955</v>
+        <v>112824</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>99085</v>
+        <v>96319</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>139972</v>
+        <v>138240</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>97851</v>
+        <v>98740</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>129445</v>
+        <v>130044</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>150779</v>
+        <v>149434</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>234248</v>
+        <v>232595</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>158446</v>
+        <v>159876</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>236296</v>
+        <v>234280</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>88243</v>
+        <v>90596</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>139657</v>
+        <v>139325</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>119553</v>
+        <v>119257</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>230396</v>
+        <v>230264</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>160223</v>
+        <v>159031</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>237877</v>
+        <v>236156</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>183057</v>
+        <v>182069</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>317052</v>
+        <v>316686</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>262133</v>
+        <v>257254</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>389411</v>
+        <v>387347</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>311732</v>
+        <v>314313</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>560781</v>
+        <v>563206</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>126398</v>
+        <v>126837</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>186482</v>
+        <v>185595</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>163862</v>
+        <v>162916</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>283821</v>
+        <v>291228</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>206832</v>
+        <v>205121</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>287892</v>
+        <v>291839</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>235202</v>
+        <v>232953</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>367996</v>
+        <v>369124</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>321324</v>
+        <v>321209</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>460539</v>
+        <v>463211</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>378945</v>
+        <v>380191</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>640858</v>
+        <v>637685</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>134486</v>
+        <v>132944</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>141323</v>
+        <v>141039</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>167107</v>
+        <v>166777</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>158630</v>
+        <v>155946</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>210614</v>
+        <v>209715</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>230781</v>
+        <v>230239</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>263747</v>
+        <v>262470</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>261295</v>
+        <v>262320</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>358182</v>
+        <v>356144</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>385754</v>
+        <v>387011</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>449762</v>
+        <v>450035</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>432743</v>
+        <v>429470</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>178759</v>
+        <v>177792</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>187779</v>
+        <v>190713</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>220365</v>
+        <v>216663</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>204678</v>
+        <v>201247</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>264169</v>
+        <v>262886</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>286728</v>
+        <v>284808</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>323390</v>
+        <v>320989</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>310873</v>
+        <v>309578</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>427171</v>
+        <v>427646</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>458909</v>
+        <v>458927</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>523498</v>
+        <v>526946</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>499313</v>
+        <v>494937</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>808433</v>
+        <v>809937</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>727453</v>
+        <v>726534</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>995477</v>
+        <v>988017</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1368524</v>
+        <v>1365042</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1173318</v>
+        <v>1171096</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1454484</v>
+        <v>1455857</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2202425</v>
+        <v>2208685</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1933530</v>
+        <v>1940586</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>2480578</v>
+        <v>2468512</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>920273</v>
+        <v>923183</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>825578</v>
+        <v>823441</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1104283</v>
+        <v>1105893</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1487093</v>
+        <v>1485925</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1296841</v>
+        <v>1291898</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1558265</v>
+        <v>1564461</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2374583</v>
+        <v>2363805</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2094580</v>
+        <v>2091869</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>2627536</v>
+        <v>2632182</v>
       </c>
     </row>
     <row r="40">
